--- a/public/uploads/asakai/1765529554838_1765261218411_Performa_Produksi_November__1_.xlsx
+++ b/public/uploads/asakai/1765529554838_1765261218411_Performa_Produksi_November__1_.xlsx
@@ -403,7 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -470,7 +470,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>PIK11</v>
+        <v>PIK11ggg</v>
       </c>
       <c r="B2" t="str">
         <v>11HA</v>
@@ -877,7 +877,7 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="str">
         <v>0</v>
       </c>
       <c r="N8">
@@ -889,7 +889,7 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="str">
         <v>6.133333333333333</v>
       </c>
       <c r="R8">
@@ -904,7 +904,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>PIK1</v>
+        <v>PIK1jj</v>
       </c>
       <c r="B9" t="str">
         <v>11HA</v>
